--- a/ttgood/result.xlsx
+++ b/ttgood/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9147" uniqueCount="6112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9342" uniqueCount="6229">
   <si>
     <t>2013-01-07 17:12:27</t>
   </si>
@@ -18355,6 +18355,357 @@
   </si>
   <si>
     <t>中学一级教师</t>
+  </si>
+  <si>
+    <t>上海应用技术学院</t>
+  </si>
+  <si>
+    <t>文化产业管理</t>
+  </si>
+  <si>
+    <t>小学语文,小学英语,初中历史,初一初二语文,初一初二英语,初三英语,高中历史,高一高二英语,上海话,精准普通话,英语四级,</t>
+  </si>
+  <si>
+    <t>高中英语听力全国一等奖，已过大学英语四六级，中级口译学习中，普通话二级甲等。曾经在幼教中心教过3-15孩子的英语</t>
+  </si>
+  <si>
+    <t>英语四六级证书英语听力全国一等奖</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>小学语文,小学数学,初一初二语文,初一初二数学,初三语文,高一高二语文,高三语文,</t>
+  </si>
+  <si>
+    <t>从事中学语文教学二十六年，着力于学生的学习兴趣的培养，努力提升学生学习能力。在阅读教学及作文教学方面有较为系统的研究。能快速提高学生的阅读和写作能力。</t>
+  </si>
+  <si>
+    <t>《语文教学中的素质教育》国家级一等奖，《中学生不良行为探究》国家级二等奖，《班主任工作中的辩证法》市级一等奖等五十多篇获奖论文。</t>
+  </si>
+  <si>
+    <t>语文</t>
+  </si>
+  <si>
+    <t>浙江</t>
+  </si>
+  <si>
+    <t>上海师范大学（徐汇）</t>
+  </si>
+  <si>
+    <t>环境科学</t>
+  </si>
+  <si>
+    <t>初一初二数学,初一初二物理,初三英语,初三数学,初三化学,小学数学,小学英语,初一初二化学,</t>
+  </si>
+  <si>
+    <t>高考数学130分；高考英语131分；大学3年拿奖学金；</t>
+  </si>
+  <si>
+    <t>英语四级和六级；、计算机二级；</t>
+  </si>
+  <si>
+    <t>上海医药高等专科学校</t>
+  </si>
+  <si>
+    <t>大专在读</t>
+  </si>
+  <si>
+    <t>护理</t>
+  </si>
+  <si>
+    <t>大专在读学生</t>
+  </si>
+  <si>
+    <t>学前教育,幼儿陪读,小学数学,小学语文,小学英语,初一初二语文,初一初二英语,初一初二化学,初三语文,初三化学,中考心里辅导,上海话,精准普通话,</t>
+  </si>
+  <si>
+    <t>擅长写作，作品曾刊登于萌芽杂志。由于是护理专业，所以待人很有耐心。本人也喜欢小孩子。我有营养指导师中级职称，在辅导小朋友功课的闲暇时间，也可以给予家属一些健康饮食的建议，使您的宝宝在学习的同时也拥有一个健康的身体。</t>
+  </si>
+  <si>
+    <t>英语四级、普通话二级甲等、计算机一级、营养指导师中级</t>
+  </si>
+  <si>
+    <t>上海音乐学院（汾阳路）</t>
+  </si>
+  <si>
+    <t>小提琴,音乐学</t>
+  </si>
+  <si>
+    <t>在职专业培训机构教师</t>
+  </si>
+  <si>
+    <t>小提琴,乐理</t>
+  </si>
+  <si>
+    <t>本人从幼儿园起学习小提琴，曾获得上海器乐比赛一等奖，并以专业第四的优异成绩考入上海音乐学院。有耐心，热情，有责任心，并有一定的教学经验。</t>
+  </si>
+  <si>
+    <t>小提琴12级证书乐理高级证书</t>
+  </si>
+  <si>
+    <t>小提琴</t>
+  </si>
+  <si>
+    <t>东华大学（松江）</t>
+  </si>
+  <si>
+    <t>机械</t>
+  </si>
+  <si>
+    <t>初一初二数学,初一初二物理,初一初二化学,初三数学,初三物理,初三化学,高一高二数学,高一高二物理,</t>
+  </si>
+  <si>
+    <t>本人长期从事高初中数学物理化学教学工作，大学本科在理学院学的书数学物理，研究生从事数学物理研究工作，所带学生都取得很好的进步。</t>
+  </si>
+  <si>
+    <t>励志奖学金，国家奖学金，本科四年其中三年获得一等奖学金，研究生期间两次获得一等奖学金。</t>
+  </si>
+  <si>
+    <t>上海师范大学</t>
+  </si>
+  <si>
+    <t>理科</t>
+  </si>
+  <si>
+    <t>小学语文,小学数学,初一初二数学,初三数学,</t>
+  </si>
+  <si>
+    <t>本人一直从事教学工作，并且经过多伦次中小学循环数学教学，能深入课本积累了丰富的教学经验。特别是一对一能帮助学生理清各知识点之间的联系，重视解题思路的理解。讲题耐心、细致、表达清晰有自己的一套讲题方法，挑选课外辅导书中的经典易错题目。力求学员更好的掌握重点、难点，讲一道题能联想一类题，具有科学的发散性思维。牢牢抓住学生的注意力。总之我会尽我所能帮助学生进步，包您满意。</t>
+  </si>
+  <si>
+    <t>获上海市1988.1999.2003，2007等年度数学优课评比一等奖。小学数学教学指导奖等。</t>
+  </si>
+  <si>
+    <t>江西</t>
+  </si>
+  <si>
+    <t>上海大学（宝山）</t>
+  </si>
+  <si>
+    <t>初一初二数学,初三数学,高一高二数学,高三数学,</t>
+  </si>
+  <si>
+    <t>有多年辅导教学经验，有信心使学生进步！</t>
+  </si>
+  <si>
+    <t>英语四级六级证书</t>
+  </si>
+  <si>
+    <t>河北</t>
+  </si>
+  <si>
+    <t>上海电力学院</t>
+  </si>
+  <si>
+    <t>热能与动力工程</t>
+  </si>
+  <si>
+    <t>初一初二数学,初一初二化学,初一初二语文,小学英语,小学数学,小学语文,幼儿陪读,学前教育,初三化学,初三数学,高等数学,</t>
+  </si>
+  <si>
+    <t>有耐心，责任心强，亲和力强，家长反映良好，能够和学生及家长进行有效的沟通和互动，在校期间曾获得过奖学金，成绩优异，希望能够帮助到您！</t>
+  </si>
+  <si>
+    <t>英语四六级证书</t>
+  </si>
+  <si>
+    <t>浙江大学</t>
+  </si>
+  <si>
+    <t>地理</t>
+  </si>
+  <si>
+    <t>高中地理,初中地理,钢笔字</t>
+  </si>
+  <si>
+    <t>现浙江大学人文地理研究生在读。本科毕业于上海外国语大学。有丰富高3地理家教经验，高3加试地理，高考地理成绩134有很多学习地理的技巧和经验可以传授。教过的学生地理高考成绩最低105。</t>
+  </si>
+  <si>
+    <t>英语专业四级，大学英语六级。</t>
+  </si>
+  <si>
+    <t>物理学</t>
+  </si>
+  <si>
+    <t>初一初二数学,初一初二物理,初三数学,初三物理,高一高二物理,高三物理,</t>
+  </si>
+  <si>
+    <t>物理学专业，本科四年的理论物理训练以及研究生阶段一年多的学术研究使我对物理有着深入的认识，目前为大学物理的助教。希望物理学习困难的同学可以联系我。</t>
+  </si>
+  <si>
+    <t>华东理工大学</t>
+  </si>
+  <si>
+    <t>计算机科学与技术</t>
+  </si>
+  <si>
+    <t>在职高中教师</t>
+  </si>
+  <si>
+    <t>初一初二数学,初一初二物理,初一初二化学,初三数学,初三物理,初三化学,高一高二物理,高三物理,</t>
+  </si>
+  <si>
+    <t>在校物理教师（完全中学）,19年教龄.正在教初三和高一年级。工作细致,有亲和力,善于沟通,长期辅导高中物理与初三物理,有丰富的经验和明显的成效.授课方式:既授之以渔,更授之以渔.讲解习题举一反三,系统归纳.根据学生有针对性的补差释疑,因材施教.我愿与您的孩子分享我良好的工作习惯与学习技巧,使他达到事半功倍的效果.</t>
+  </si>
+  <si>
+    <t>英语六级,计算机操作中级.2005年度徐汇区优秀中青年班主任称号.</t>
+  </si>
+  <si>
+    <t>上海，区重点高中</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>海外留学归国人员</t>
+  </si>
+  <si>
+    <t>初一初二英语,初三英语,对外汉语,精准普通话,初级英语口语,初级新概念英语,英语四级,商务英语,英语六级,高级英语口语,高级牛津英语,高级新概念英语,初级西班牙语,民族舞,高级西班牙语,广东话,西班牙语，舞蹈</t>
+  </si>
+  <si>
+    <t>上海外国语大学英语和西班牙语专业的研究生，本科期间曾到美国做交换生留学，口语流利，考过雅思7.5托福110专业八级对英语语法和口语擅长。2个小时的学习从不废话，保证让学生学到很多东西</t>
+  </si>
+  <si>
+    <t>英语专业八级普通话测试计算机二级高级口译证书bec高级西班牙语雅思7.5分高级商务英语西班牙语高级</t>
+  </si>
+  <si>
+    <t>自动化汽车电子</t>
+  </si>
+  <si>
+    <t>小学语文,小学数学,小学英语,初一初二英语,初一初二数学,初一初二化学,初一初二语文,</t>
+  </si>
+  <si>
+    <t>现在我是一名本科在读大三学生，善于与小朋友交际，能够把知识通过自己的言传身教教会学生。我具有很好的学习能力，在过去两年的大学学习中，我取得了两次二等奖学金，两次三等奖学金，并且通过了4级与6级英语考试。此外，我还在东华大学填报了英语为我的第二专业，在学习中成绩优良。不止是学习，在大学中我已经成为了一名预备党员，并获得校优秀团干部称号。</t>
+  </si>
+  <si>
+    <t>4级、6级英语证书；中级商务英语证书；计算机二级证书。</t>
+  </si>
+  <si>
+    <t>上海外国语大学</t>
+  </si>
+  <si>
+    <t>商务英语,高级英语口语,高一高二英语,英语四级,英语六级,雅思,高级新概念英语,精准英语语音,高级牛津英语,高三英语,高考心里辅导,初三英语,初一初二英语,</t>
+  </si>
+  <si>
+    <t>十几年教龄，现任重点高中英语教师，曾带过好几轮高三，积累了丰富的教学经验；国家注册的心理咨询师，把心理学知识与教学相结合，取得了良好的教学效果。特别是能够帮助学生快速突破英语词汇关,在十年里带学生一个月内突破8000个英语单词,成功率98左右.学生不仅能看着中文翻英文,看着英文翻中文,甚至能够听到英文讲中文,听说读写全面突破。学生经辅导后一般高考能达到130以上。</t>
+  </si>
+  <si>
+    <t>英语专业八级</t>
+  </si>
+  <si>
+    <t>大学讲师</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>英国威尔士大学</t>
+  </si>
+  <si>
+    <t>会计与金融</t>
+  </si>
+  <si>
+    <t>小学语文,小学数学,小学英语,初一初二英语,初三英语,中考心里辅导,高一高二英语,高考心里辅导,上海话,对外汉语,初级英语口语,初级新概念英语,初级牛津英语,初一初二数学,初三数学,</t>
+  </si>
+  <si>
+    <t>丰富的辅导经验，有耐心，有爱心，认真负责！所获奖项2011年获得英国威尔士班戈大学“国际奖学金”2012年获得英国威尔士班戈大学“国际奖学金”2011年9月英国威尔士班戈大学志愿者负责人2011年9月-2012年6月英国威尔士班戈大学华人社团/学联校内职务英国威尔士大学学联华人社团（威尔士最大的国际学生组织）活动部</t>
+  </si>
+  <si>
+    <t>英国威尔士大学语言认证中心证书</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>法国克莱蒙费朗第二大学</t>
+  </si>
+  <si>
+    <t>国际经济与贸易</t>
+  </si>
+  <si>
+    <t>初级法语,高级法语,初级英语口语,初级新概念英语,英语四级,英语六级,对外汉语,精准普通话,上海话,初一初二英语,初一初二数学,初一初二物理,小学数学,小学英语,</t>
+  </si>
+  <si>
+    <t>法国硕士毕业，双学士学位。学习法语5年，赴法留学3年，拥有扎实的法语基础和熟练的听说读写能力。学习英语多年，曾赴美交流，拥有良好的口语和读写能力。从小学习成绩优异，各科目的基本功扎实，对数学和英语学习优异擅长。</t>
+  </si>
+  <si>
+    <t>法语四级，法语dalf-c1；英语四六级证书，英语中级口译，英语托业910分；大学奖学金；</t>
+  </si>
+  <si>
+    <t>同济大学（四平路）</t>
+  </si>
+  <si>
+    <t>数学系数学专业</t>
+  </si>
+  <si>
+    <t>初一初二数学,初三数学,高一高二数学,高三数学,小学数学,小学数学竞赛（包括预备班）</t>
+  </si>
+  <si>
+    <t>认真负责，稳重，爱好数学，擅长解答题目，答疑解惑，不太适合系统教学。</t>
+  </si>
+  <si>
+    <t>河南大学</t>
+  </si>
+  <si>
+    <t>小学语文,初一初二语文,初三语文,</t>
+  </si>
+  <si>
+    <t>中学语文特级教师。本人执教的毕业班中考语文成绩曾7次位居前列。尤其擅长作文和阅读能力的培养和提高，满分作文的涌现使所任班级语文中考成绩独具优势。善于根据不同学生的特点进行兴趣培养和学习指导，促其提高。指导的学生在作文大赛和阅读大赛中多次获得奖励。曾应中国青少年发展基金会聘请参加“中文识字规律阶梯”创作组赴京专业创作。曾多次在《中国教育科学》.《河南教育》.《中学生阅读》.《作文》发表文章和作品。在国学研读和教学，书法，散文写作等方面亦有涉猎。</t>
+  </si>
+  <si>
+    <t>优秀教师；语文学科带头人；教育部曾宪梓教师奖；特级教师；中学语文高级教师专业技术职务证书</t>
+  </si>
+  <si>
+    <t>中学特级教师</t>
+  </si>
+  <si>
+    <t>中国象棋,国际象棋,计算机基本操作,</t>
+  </si>
+  <si>
+    <t>象棋一级棋士（一级运动员）屡次获得市级比赛名次</t>
+  </si>
+  <si>
+    <t>计算机证书，微软证书</t>
+  </si>
+  <si>
+    <t>上海师范专业学校</t>
+  </si>
+  <si>
+    <t>大专毕业</t>
+  </si>
+  <si>
+    <t>退休小学教师</t>
+  </si>
+  <si>
+    <t>小学语文,小学数学,</t>
+  </si>
+  <si>
+    <t>小学高级教师，多年语文教学经验，擅长拼音、阅读、作文等辅导，同时能辅导数学，对儿童早期教育也有一定的研究和丰富的经验。热爱学生，掌握儿童心理，熟悉小学教材内容并能因材施教。曾获全国第二届语文教师范文写作比赛二等奖几十篇作品刊登在全国各家刊物上。经辅导，多名学生作品被刊登在各家儿童刊物上。</t>
+  </si>
+  <si>
+    <t>普通话二级甲等</t>
+  </si>
+  <si>
+    <t>上海，小学</t>
+  </si>
+  <si>
+    <t>小学高级教师</t>
+  </si>
+  <si>
+    <t>上海金融学院</t>
+  </si>
+  <si>
+    <t>行政管理</t>
+  </si>
+  <si>
+    <t>小学语文,小学数学,小学英语,初三语文,上海话,精准普通话,古筝,</t>
+  </si>
+  <si>
+    <t>　古筝10级,人品好善交流责任感强认真……</t>
   </si>
 </sst>
 </file>
@@ -18743,8 +19094,8 @@
   <dimension ref="A1:S2986"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43:V43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19468,7 +19819,7 @@
         <v>6015</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -19509,7 +19860,7 @@
         <v>6019</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -19550,7 +19901,7 @@
         <v>6025</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -19591,7 +19942,7 @@
         <v>6028</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -19644,7 +19995,7 @@
         <v>6037</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -19697,7 +20048,7 @@
         <v>6046</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -19707,15 +20058,38 @@
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R22" t="s">
-        <v>3015</v>
-      </c>
-      <c r="S22" t="b">
-        <f>EXACT(B22,R22)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="D22" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5982</v>
+      </c>
+      <c r="F22">
+        <v>1990</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6112</v>
+      </c>
+      <c r="H22" t="s">
+        <v>5984</v>
+      </c>
+      <c r="I22" t="s">
+        <v>6113</v>
+      </c>
+      <c r="J22" t="s">
+        <v>5986</v>
+      </c>
+      <c r="K22" t="s">
+        <v>6114</v>
+      </c>
+      <c r="L22" t="s">
+        <v>6115</v>
+      </c>
+      <c r="M22" t="s">
+        <v>6116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -19725,15 +20099,50 @@
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R23" t="s">
-        <v>3016</v>
-      </c>
-      <c r="S23" t="b">
-        <f t="shared" ref="S23:S86" si="0">EXACT(B23,R23)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="D23" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6076</v>
+      </c>
+      <c r="F23">
+        <v>1964</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6029</v>
+      </c>
+      <c r="H23" t="s">
+        <v>6030</v>
+      </c>
+      <c r="I23" t="s">
+        <v>6117</v>
+      </c>
+      <c r="J23" t="s">
+        <v>6106</v>
+      </c>
+      <c r="K23" t="s">
+        <v>6118</v>
+      </c>
+      <c r="L23" t="s">
+        <v>6119</v>
+      </c>
+      <c r="M23" t="s">
+        <v>6120</v>
+      </c>
+      <c r="N23" t="s">
+        <v>6110</v>
+      </c>
+      <c r="O23" t="s">
+        <v>6121</v>
+      </c>
+      <c r="P23">
+        <v>26</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>6111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -19743,15 +20152,38 @@
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R24" t="s">
-        <v>3017</v>
-      </c>
-      <c r="S24" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="D24" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6122</v>
+      </c>
+      <c r="F24">
+        <v>1988</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6123</v>
+      </c>
+      <c r="H24" t="s">
+        <v>6000</v>
+      </c>
+      <c r="I24" t="s">
+        <v>6124</v>
+      </c>
+      <c r="J24" t="s">
+        <v>6002</v>
+      </c>
+      <c r="K24" t="s">
+        <v>6125</v>
+      </c>
+      <c r="L24" t="s">
+        <v>6126</v>
+      </c>
+      <c r="M24" t="s">
+        <v>6127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -19761,15 +20193,38 @@
       <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R25" t="s">
-        <v>3018</v>
-      </c>
-      <c r="S25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="D25" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5982</v>
+      </c>
+      <c r="F25">
+        <v>1991</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6128</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6129</v>
+      </c>
+      <c r="I25" t="s">
+        <v>6130</v>
+      </c>
+      <c r="J25" t="s">
+        <v>6131</v>
+      </c>
+      <c r="K25" t="s">
+        <v>6132</v>
+      </c>
+      <c r="L25" t="s">
+        <v>6133</v>
+      </c>
+      <c r="M25" t="s">
+        <v>6134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -19779,15 +20234,50 @@
       <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R26" t="s">
-        <v>3019</v>
-      </c>
-      <c r="S26" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="D26" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5982</v>
+      </c>
+      <c r="F26">
+        <v>1987</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6135</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6030</v>
+      </c>
+      <c r="I26" t="s">
+        <v>6136</v>
+      </c>
+      <c r="J26" t="s">
+        <v>6137</v>
+      </c>
+      <c r="K26" t="s">
+        <v>6138</v>
+      </c>
+      <c r="L26" t="s">
+        <v>6139</v>
+      </c>
+      <c r="M26" t="s">
+        <v>6140</v>
+      </c>
+      <c r="N26" t="s">
+        <v>6091</v>
+      </c>
+      <c r="O26" t="s">
+        <v>6141</v>
+      </c>
+      <c r="P26">
+        <v>7</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>6064</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -19797,15 +20287,38 @@
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R27" t="s">
-        <v>3020</v>
-      </c>
-      <c r="S27" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="D27" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6076</v>
+      </c>
+      <c r="F27">
+        <v>1987</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6142</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6000</v>
+      </c>
+      <c r="I27" t="s">
+        <v>6143</v>
+      </c>
+      <c r="J27" t="s">
+        <v>6002</v>
+      </c>
+      <c r="K27" t="s">
+        <v>6144</v>
+      </c>
+      <c r="L27" t="s">
+        <v>6145</v>
+      </c>
+      <c r="M27" t="s">
+        <v>6146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -19815,15 +20328,50 @@
       <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R28" t="s">
-        <v>3021</v>
-      </c>
-      <c r="S28" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="D28" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6076</v>
+      </c>
+      <c r="F28">
+        <v>1965</v>
+      </c>
+      <c r="G28" t="s">
+        <v>6147</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6030</v>
+      </c>
+      <c r="I28" t="s">
+        <v>6148</v>
+      </c>
+      <c r="J28" t="s">
+        <v>6106</v>
+      </c>
+      <c r="K28" t="s">
+        <v>6149</v>
+      </c>
+      <c r="L28" t="s">
+        <v>6150</v>
+      </c>
+      <c r="M28" t="s">
+        <v>6151</v>
+      </c>
+      <c r="N28" t="s">
+        <v>6110</v>
+      </c>
+      <c r="O28" t="s">
+        <v>6063</v>
+      </c>
+      <c r="P28">
+        <v>18</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>6111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -19833,15 +20381,38 @@
       <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R29" t="s">
-        <v>3022</v>
-      </c>
-      <c r="S29" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="D29" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6152</v>
+      </c>
+      <c r="F29">
+        <v>1987</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6153</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6000</v>
+      </c>
+      <c r="I29" t="s">
+        <v>6063</v>
+      </c>
+      <c r="J29" t="s">
+        <v>6002</v>
+      </c>
+      <c r="K29" t="s">
+        <v>6154</v>
+      </c>
+      <c r="L29" t="s">
+        <v>6155</v>
+      </c>
+      <c r="M29" t="s">
+        <v>6156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -19851,15 +20422,38 @@
       <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R30" t="s">
-        <v>3023</v>
-      </c>
-      <c r="S30" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="D30" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6157</v>
+      </c>
+      <c r="F30">
+        <v>1988</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6158</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6000</v>
+      </c>
+      <c r="I30" t="s">
+        <v>6159</v>
+      </c>
+      <c r="J30" t="s">
+        <v>6002</v>
+      </c>
+      <c r="K30" t="s">
+        <v>6160</v>
+      </c>
+      <c r="L30" t="s">
+        <v>6161</v>
+      </c>
+      <c r="M30" t="s">
+        <v>6162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -19869,15 +20463,38 @@
       <c r="C31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R31" t="s">
-        <v>3024</v>
-      </c>
-      <c r="S31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="D31" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5982</v>
+      </c>
+      <c r="F31">
+        <v>1988</v>
+      </c>
+      <c r="G31" t="s">
+        <v>6163</v>
+      </c>
+      <c r="H31" t="s">
+        <v>5984</v>
+      </c>
+      <c r="I31" t="s">
+        <v>6164</v>
+      </c>
+      <c r="J31" t="s">
+        <v>6002</v>
+      </c>
+      <c r="K31" t="s">
+        <v>6165</v>
+      </c>
+      <c r="L31" t="s">
+        <v>6166</v>
+      </c>
+      <c r="M31" t="s">
+        <v>6167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -19887,12 +20504,32 @@
       <c r="C32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R32" t="s">
-        <v>3025</v>
-      </c>
-      <c r="S32" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D32" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5982</v>
+      </c>
+      <c r="F32">
+        <v>1987</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6153</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6105</v>
+      </c>
+      <c r="I32" t="s">
+        <v>6168</v>
+      </c>
+      <c r="K32" t="s">
+        <v>6169</v>
+      </c>
+      <c r="L32" t="s">
+        <v>6170</v>
+      </c>
+      <c r="M32" t="s">
+        <v>6015</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -19905,12 +20542,47 @@
       <c r="C33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="S33" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D33" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5982</v>
+      </c>
+      <c r="F33">
+        <v>1969</v>
+      </c>
+      <c r="G33" t="s">
+        <v>6171</v>
+      </c>
+      <c r="H33" t="s">
+        <v>6030</v>
+      </c>
+      <c r="I33" t="s">
+        <v>6172</v>
+      </c>
+      <c r="J33" t="s">
+        <v>6173</v>
+      </c>
+      <c r="K33" t="s">
+        <v>6174</v>
+      </c>
+      <c r="L33" t="s">
+        <v>6175</v>
+      </c>
+      <c r="M33" t="s">
+        <v>6176</v>
+      </c>
+      <c r="N33" t="s">
+        <v>6177</v>
+      </c>
+      <c r="O33" t="s">
+        <v>6178</v>
+      </c>
+      <c r="P33">
+        <v>17</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>6111</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -19923,12 +20595,35 @@
       <c r="C34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R34" t="s">
-        <v>3027</v>
-      </c>
-      <c r="S34" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D34" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6179</v>
+      </c>
+      <c r="F34">
+        <v>1989</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6065</v>
+      </c>
+      <c r="H34" t="s">
+        <v>6000</v>
+      </c>
+      <c r="I34" t="s">
+        <v>6066</v>
+      </c>
+      <c r="J34" t="s">
+        <v>6180</v>
+      </c>
+      <c r="K34" t="s">
+        <v>6181</v>
+      </c>
+      <c r="L34" t="s">
+        <v>6182</v>
+      </c>
+      <c r="M34" t="s">
+        <v>6183</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -19941,12 +20636,35 @@
       <c r="C35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R35" t="s">
-        <v>3028</v>
-      </c>
-      <c r="S35" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D35" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5982</v>
+      </c>
+      <c r="F35">
+        <v>1991</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5983</v>
+      </c>
+      <c r="H35" t="s">
+        <v>5984</v>
+      </c>
+      <c r="I35" t="s">
+        <v>6184</v>
+      </c>
+      <c r="J35" t="s">
+        <v>5986</v>
+      </c>
+      <c r="K35" t="s">
+        <v>6185</v>
+      </c>
+      <c r="L35" t="s">
+        <v>6186</v>
+      </c>
+      <c r="M35" t="s">
+        <v>6187</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -19959,12 +20677,47 @@
       <c r="C36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R36" t="s">
-        <v>3029</v>
-      </c>
-      <c r="S36" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D36" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5982</v>
+      </c>
+      <c r="F36">
+        <v>1972</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6188</v>
+      </c>
+      <c r="H36" t="s">
+        <v>6030</v>
+      </c>
+      <c r="I36" t="s">
+        <v>6066</v>
+      </c>
+      <c r="J36" t="s">
+        <v>6173</v>
+      </c>
+      <c r="K36" t="s">
+        <v>6189</v>
+      </c>
+      <c r="L36" t="s">
+        <v>6190</v>
+      </c>
+      <c r="M36" t="s">
+        <v>6191</v>
+      </c>
+      <c r="N36" t="s">
+        <v>6177</v>
+      </c>
+      <c r="O36" t="s">
+        <v>6066</v>
+      </c>
+      <c r="P36">
+        <v>6</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>6192</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -19977,12 +20730,35 @@
       <c r="C37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R37" t="s">
-        <v>3030</v>
-      </c>
-      <c r="S37" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D37" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6193</v>
+      </c>
+      <c r="F37">
+        <v>1990</v>
+      </c>
+      <c r="G37" t="s">
+        <v>6194</v>
+      </c>
+      <c r="H37" t="s">
+        <v>6030</v>
+      </c>
+      <c r="I37" t="s">
+        <v>6195</v>
+      </c>
+      <c r="J37" t="s">
+        <v>6180</v>
+      </c>
+      <c r="K37" t="s">
+        <v>6196</v>
+      </c>
+      <c r="L37" t="s">
+        <v>6197</v>
+      </c>
+      <c r="M37" t="s">
+        <v>6198</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -19995,12 +20771,35 @@
       <c r="C38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R38" t="s">
-        <v>3031</v>
-      </c>
-      <c r="S38" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D38" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6199</v>
+      </c>
+      <c r="F38">
+        <v>1989</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6200</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6105</v>
+      </c>
+      <c r="I38" t="s">
+        <v>6201</v>
+      </c>
+      <c r="J38" t="s">
+        <v>6180</v>
+      </c>
+      <c r="K38" t="s">
+        <v>6202</v>
+      </c>
+      <c r="L38" t="s">
+        <v>6203</v>
+      </c>
+      <c r="M38" t="s">
+        <v>6204</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -20013,12 +20812,35 @@
       <c r="C39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R39" t="s">
-        <v>3032</v>
-      </c>
-      <c r="S39" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D39" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6055</v>
+      </c>
+      <c r="F39">
+        <v>1989</v>
+      </c>
+      <c r="G39" t="s">
+        <v>6205</v>
+      </c>
+      <c r="H39" t="s">
+        <v>5984</v>
+      </c>
+      <c r="I39" t="s">
+        <v>6206</v>
+      </c>
+      <c r="J39" t="s">
+        <v>5994</v>
+      </c>
+      <c r="K39" t="s">
+        <v>6207</v>
+      </c>
+      <c r="L39" t="s">
+        <v>6208</v>
+      </c>
+      <c r="M39" t="s">
+        <v>6015</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -20031,12 +20853,47 @@
       <c r="C40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R40" t="s">
-        <v>3033</v>
-      </c>
-      <c r="S40" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D40" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5991</v>
+      </c>
+      <c r="F40">
+        <v>1961</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6209</v>
+      </c>
+      <c r="H40" t="s">
+        <v>6030</v>
+      </c>
+      <c r="I40" t="s">
+        <v>6117</v>
+      </c>
+      <c r="J40" t="s">
+        <v>6106</v>
+      </c>
+      <c r="K40" t="s">
+        <v>6210</v>
+      </c>
+      <c r="L40" t="s">
+        <v>6211</v>
+      </c>
+      <c r="M40" t="s">
+        <v>6212</v>
+      </c>
+      <c r="N40" t="s">
+        <v>6110</v>
+      </c>
+      <c r="O40" t="s">
+        <v>6121</v>
+      </c>
+      <c r="P40">
+        <v>24</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>6213</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -20049,12 +20906,35 @@
       <c r="C41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R41" t="s">
-        <v>3034</v>
-      </c>
-      <c r="S41" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D41" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5982</v>
+      </c>
+      <c r="F41">
+        <v>1985</v>
+      </c>
+      <c r="G41" t="s">
+        <v>6112</v>
+      </c>
+      <c r="H41" t="s">
+        <v>5984</v>
+      </c>
+      <c r="I41" t="s">
+        <v>6172</v>
+      </c>
+      <c r="J41" t="s">
+        <v>5994</v>
+      </c>
+      <c r="K41" t="s">
+        <v>6214</v>
+      </c>
+      <c r="L41" t="s">
+        <v>6215</v>
+      </c>
+      <c r="M41" t="s">
+        <v>6216</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -20067,12 +20947,47 @@
       <c r="C42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R42" t="s">
-        <v>3035</v>
-      </c>
-      <c r="S42" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D42" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5982</v>
+      </c>
+      <c r="F42">
+        <v>1950</v>
+      </c>
+      <c r="G42" t="s">
+        <v>6217</v>
+      </c>
+      <c r="H42" t="s">
+        <v>6218</v>
+      </c>
+      <c r="I42" t="s">
+        <v>6121</v>
+      </c>
+      <c r="J42" t="s">
+        <v>6219</v>
+      </c>
+      <c r="K42" t="s">
+        <v>6220</v>
+      </c>
+      <c r="L42" t="s">
+        <v>6221</v>
+      </c>
+      <c r="M42" t="s">
+        <v>6222</v>
+      </c>
+      <c r="N42" t="s">
+        <v>6223</v>
+      </c>
+      <c r="O42" t="s">
+        <v>6121</v>
+      </c>
+      <c r="P42">
+        <v>25</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>6224</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -20085,12 +21000,32 @@
       <c r="C43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R43" t="s">
-        <v>3036</v>
-      </c>
-      <c r="S43" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D43" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5982</v>
+      </c>
+      <c r="F43">
+        <v>1986</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6225</v>
+      </c>
+      <c r="H43" t="s">
+        <v>5984</v>
+      </c>
+      <c r="I43" t="s">
+        <v>6226</v>
+      </c>
+      <c r="J43" t="s">
+        <v>5994</v>
+      </c>
+      <c r="K43" t="s">
+        <v>6227</v>
+      </c>
+      <c r="L43" t="s">
+        <v>6228</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -20107,7 +21042,7 @@
         <v>3037</v>
       </c>
       <c r="S44" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="S43:S86" si="0">EXACT(B44,R44)</f>
         <v>1</v>
       </c>
     </row>
